--- a/Code/Results/Cases/Case_1_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82616859780786</v>
+        <v>16.2715326603696</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.551962001167329</v>
+        <v>4.991257422944105</v>
       </c>
       <c r="E2">
-        <v>11.11757450158068</v>
+        <v>17.67479000615848</v>
       </c>
       <c r="F2">
-        <v>19.35794092463786</v>
+        <v>25.0355028630226</v>
       </c>
       <c r="G2">
-        <v>2.081257120872957</v>
+        <v>3.634170068894004</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.61025640546083</v>
+        <v>9.458621779711443</v>
       </c>
       <c r="L2">
-        <v>6.731074613828443</v>
+        <v>8.4597053410284</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.0228739265614</v>
+        <v>19.90530267709983</v>
       </c>
       <c r="O2">
-        <v>15.42299099666503</v>
+        <v>22.37278902369133</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.17933249738173</v>
+        <v>16.16594951984914</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.4194250155826</v>
+        <v>4.945236309674896</v>
       </c>
       <c r="E3">
-        <v>11.23180946763588</v>
+        <v>17.73499294976907</v>
       </c>
       <c r="F3">
-        <v>18.84939391143407</v>
+        <v>25.02023450545102</v>
       </c>
       <c r="G3">
-        <v>2.086035804036535</v>
+        <v>3.636013083655973</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.9007197044252</v>
+        <v>9.120290544060952</v>
       </c>
       <c r="L3">
-        <v>6.346487945527601</v>
+        <v>8.418417321417381</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.23353269990505</v>
+        <v>19.96866362212512</v>
       </c>
       <c r="O3">
-        <v>15.2481095107118</v>
+        <v>22.41213720038299</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.77230701839228</v>
+        <v>16.10419250070908</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.335457151114661</v>
+        <v>4.916288491402191</v>
       </c>
       <c r="E4">
-        <v>11.30733794081016</v>
+        <v>17.77445857534432</v>
       </c>
       <c r="F4">
-        <v>18.54706161054973</v>
+        <v>25.01744736491307</v>
       </c>
       <c r="G4">
-        <v>2.089065166823094</v>
+        <v>3.637205626562548</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.44407372165516</v>
+        <v>8.904087863069487</v>
       </c>
       <c r="L4">
-        <v>6.162166786284902</v>
+        <v>8.394479033361748</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.36583259958072</v>
+        <v>20.00939563577742</v>
       </c>
       <c r="O4">
-        <v>15.15264367215714</v>
+        <v>22.44121863523963</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60419632512707</v>
+        <v>16.07982128288002</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.300616881265174</v>
+        <v>4.904323032505046</v>
       </c>
       <c r="E5">
-        <v>11.33944274089701</v>
+        <v>17.79117064318778</v>
       </c>
       <c r="F5">
-        <v>18.42648034359572</v>
+        <v>25.01797019802123</v>
       </c>
       <c r="G5">
-        <v>2.090324103537481</v>
+        <v>3.637706965023858</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.25280070354507</v>
+        <v>8.813932072025093</v>
       </c>
       <c r="L5">
-        <v>6.086131525036719</v>
+        <v>8.385086867802446</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.42051116180404</v>
+        <v>20.02645532590021</v>
       </c>
       <c r="O5">
-        <v>15.11668399984177</v>
+        <v>22.45430503686284</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.57615368517339</v>
+        <v>16.07582313792962</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.294794955933541</v>
+        <v>4.902326109013296</v>
       </c>
       <c r="E6">
-        <v>11.3448530288496</v>
+        <v>17.79398370962946</v>
       </c>
       <c r="F6">
-        <v>18.40661987761182</v>
+        <v>25.01815722658903</v>
       </c>
       <c r="G6">
-        <v>2.090534639790508</v>
+        <v>3.637791141456275</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.22072984768574</v>
+        <v>8.798840310610085</v>
       </c>
       <c r="L6">
-        <v>6.07345358095051</v>
+        <v>8.383549437016226</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.42963735147802</v>
+        <v>20.02931596170204</v>
       </c>
       <c r="O6">
-        <v>15.11088902185424</v>
+        <v>22.45655257700416</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.77004856941122</v>
+        <v>16.10386057258916</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.334989764733597</v>
+        <v>4.916127799031995</v>
       </c>
       <c r="E7">
-        <v>11.30776558332258</v>
+        <v>17.77468141039322</v>
       </c>
       <c r="F7">
-        <v>18.54542462976489</v>
+        <v>25.01744769854901</v>
       </c>
       <c r="G7">
-        <v>2.089082045652433</v>
+        <v>3.637212325502556</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.44151500813016</v>
+        <v>8.902880187816907</v>
       </c>
       <c r="L7">
-        <v>6.161144933630326</v>
+        <v>8.3943508882945</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.36656688633558</v>
+        <v>20.00962384008891</v>
       </c>
       <c r="O7">
-        <v>15.15214686419095</v>
+        <v>22.44139012360639</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.60531837803673</v>
+        <v>16.23450424672002</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.506817015454172</v>
+        <v>4.975535476371388</v>
       </c>
       <c r="E8">
-        <v>11.15582679895055</v>
+        <v>17.69502934503031</v>
       </c>
       <c r="F8">
-        <v>19.18061341421172</v>
+        <v>25.0288726819594</v>
       </c>
       <c r="G8">
-        <v>2.082885353180918</v>
+        <v>3.634792924226026</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.37001232839897</v>
+        <v>9.343765914687845</v>
       </c>
       <c r="L8">
-        <v>6.596122794723177</v>
+        <v>8.445180744279556</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.09490962366513</v>
+        <v>19.92677092574272</v>
       </c>
       <c r="O8">
-        <v>15.36019071964155</v>
+        <v>22.38533366836499</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.15631577976992</v>
+        <v>16.51400222008566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.822103986158194</v>
+        <v>5.086353273881266</v>
       </c>
       <c r="E9">
-        <v>10.90199869580278</v>
+        <v>17.5586443644197</v>
       </c>
       <c r="F9">
-        <v>20.49919771950199</v>
+        <v>25.10340164137347</v>
       </c>
       <c r="G9">
-        <v>2.071465499165057</v>
+        <v>3.630529722358969</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.02129933746435</v>
+        <v>10.13821613752507</v>
       </c>
       <c r="L9">
-        <v>7.521040776230496</v>
+        <v>8.555711034158703</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.58456528036211</v>
+        <v>19.77873879100894</v>
       </c>
       <c r="O9">
-        <v>15.8646108909294</v>
+        <v>22.31453732605181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.2333764990941</v>
+        <v>16.73205804554463</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.039223045687493</v>
+        <v>5.164048180091245</v>
       </c>
       <c r="E10">
-        <v>10.74446001106483</v>
+        <v>17.47047890639757</v>
       </c>
       <c r="F10">
-        <v>21.50500235477026</v>
+        <v>25.18965972164067</v>
       </c>
       <c r="G10">
-        <v>2.063486526328976</v>
+        <v>3.627687885914234</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.12845546351415</v>
+        <v>10.67576938297402</v>
       </c>
       <c r="L10">
-        <v>8.138825759561264</v>
+        <v>8.643029173088911</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.22167691095416</v>
+        <v>19.67869388366983</v>
       </c>
       <c r="O10">
-        <v>16.29614077926119</v>
+        <v>22.28646959243364</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.70836134914449</v>
+        <v>16.83367915723084</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.134614019794177</v>
+        <v>5.198532058117169</v>
       </c>
       <c r="E11">
-        <v>10.67957335565099</v>
+        <v>17.43297518811417</v>
       </c>
       <c r="F11">
-        <v>21.96916512635494</v>
+        <v>25.23565525573289</v>
       </c>
       <c r="G11">
-        <v>2.059937786915602</v>
+        <v>3.626457459600263</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.60882438342623</v>
+        <v>10.90973164349496</v>
       </c>
       <c r="L11">
-        <v>8.406577677383916</v>
+        <v>8.68396420935369</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.05883777135978</v>
+        <v>19.63505387526433</v>
       </c>
       <c r="O11">
-        <v>16.50601128608081</v>
+        <v>22.27891268628292</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88598416197486</v>
+        <v>16.8724799425166</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.170234264253658</v>
+        <v>5.21146217132227</v>
       </c>
       <c r="E12">
-        <v>10.65602242548002</v>
+        <v>17.41914724320026</v>
       </c>
       <c r="F12">
-        <v>22.14577581728308</v>
+        <v>25.25403470515401</v>
       </c>
       <c r="G12">
-        <v>2.058604896283017</v>
+        <v>3.626000444596659</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.78737088309451</v>
+        <v>10.99676747895115</v>
       </c>
       <c r="L12">
-        <v>8.506072749334068</v>
+        <v>8.699629537867057</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.99746469641503</v>
+        <v>19.61879615624292</v>
       </c>
       <c r="O12">
-        <v>16.58745321344124</v>
+        <v>22.27680073460209</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84783090988507</v>
+        <v>16.86410978818048</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.162585385717793</v>
+        <v>5.208683211824793</v>
       </c>
       <c r="E13">
-        <v>10.66104840423736</v>
+        <v>17.42210871607957</v>
       </c>
       <c r="F13">
-        <v>22.10770367539347</v>
+        <v>25.25003374617717</v>
       </c>
       <c r="G13">
-        <v>2.058891483162688</v>
+        <v>3.626098474892662</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.74906714957817</v>
+        <v>10.97809274232361</v>
       </c>
       <c r="L13">
-        <v>8.484728817168772</v>
+        <v>8.696248598088941</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.01067008801744</v>
+        <v>19.62228565570443</v>
       </c>
       <c r="O13">
-        <v>16.56982543715373</v>
+        <v>22.27722223817907</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72301989227945</v>
+        <v>16.83686509899799</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.13755467173782</v>
+        <v>5.199598420780416</v>
       </c>
       <c r="E14">
-        <v>10.67761508688928</v>
+        <v>17.4318300637129</v>
       </c>
       <c r="F14">
-        <v>21.98367868983613</v>
+        <v>25.23714812506362</v>
       </c>
       <c r="G14">
-        <v>2.059827914104661</v>
+        <v>3.62641968216481</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.62358085313793</v>
+        <v>10.91692362077189</v>
       </c>
       <c r="L14">
-        <v>8.414801122835035</v>
+        <v>8.685249776627092</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.05378293632996</v>
+        <v>19.63371098273621</v>
       </c>
       <c r="O14">
-        <v>16.51267201992123</v>
+        <v>22.27872390962902</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.64627503710379</v>
+        <v>16.82021759966294</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.122156774576806</v>
+        <v>5.194016898492948</v>
       </c>
       <c r="E15">
-        <v>10.68789693058187</v>
+        <v>17.43783334985601</v>
       </c>
       <c r="F15">
-        <v>21.90781649042498</v>
+        <v>25.22938027554598</v>
       </c>
       <c r="G15">
-        <v>2.060402908329794</v>
+        <v>3.62661759134886</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.54627930929148</v>
+        <v>10.87925143646912</v>
       </c>
       <c r="L15">
-        <v>8.371721827237014</v>
+        <v>8.678533741085499</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.08022766927964</v>
+        <v>19.64074416521755</v>
       </c>
       <c r="O15">
-        <v>16.47792073321556</v>
+        <v>22.27974136005685</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.20202557755015</v>
+        <v>16.7254631530434</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.032919591101166</v>
+        <v>5.161776883913989</v>
       </c>
       <c r="E16">
-        <v>10.74884072141435</v>
+        <v>17.47298220780561</v>
       </c>
       <c r="F16">
-        <v>21.47479174126945</v>
+        <v>25.18678896773831</v>
       </c>
       <c r="G16">
-        <v>2.063720014697374</v>
+        <v>3.627769547860466</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.09659257034865</v>
+        <v>10.66026307258217</v>
       </c>
       <c r="L16">
-        <v>8.121061318353036</v>
+        <v>8.640377510265361</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.23236126024726</v>
+        <v>19.68158340307117</v>
       </c>
       <c r="O16">
-        <v>16.28269982404033</v>
+        <v>22.28706835389373</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.92558628577363</v>
+        <v>16.66793476382221</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.977297921090181</v>
+        <v>5.141775172435191</v>
       </c>
       <c r="E17">
-        <v>10.78799523430619</v>
+        <v>17.49521131815152</v>
       </c>
       <c r="F17">
-        <v>21.21075806218083</v>
+        <v>25.16238460897182</v>
       </c>
       <c r="G17">
-        <v>2.065775197994216</v>
+        <v>3.628492171342324</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.81475024029578</v>
+        <v>10.5231823033656</v>
       </c>
       <c r="L17">
-        <v>7.963895619560338</v>
+        <v>8.617273417851541</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.32624228145467</v>
+        <v>19.70711526101677</v>
       </c>
       <c r="O17">
-        <v>16.16642640935089</v>
+        <v>22.29289830685654</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.76518009838672</v>
+        <v>16.63507616432675</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.944988742207333</v>
+        <v>5.130190040052024</v>
       </c>
       <c r="E18">
-        <v>10.81115097787444</v>
+        <v>17.50824196431438</v>
       </c>
       <c r="F18">
-        <v>21.05952149320443</v>
+        <v>25.14898446096166</v>
       </c>
       <c r="G18">
-        <v>2.066964947377571</v>
+        <v>3.628913675512652</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.65045053211433</v>
+        <v>10.44334386757749</v>
       </c>
       <c r="L18">
-        <v>7.872246908042328</v>
+        <v>8.604099423030576</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.38045306515378</v>
+        <v>19.72197668327725</v>
       </c>
       <c r="O18">
-        <v>16.10082507048642</v>
+        <v>22.29674205597196</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.71063100480478</v>
+        <v>16.62399124670378</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.93399549310614</v>
+        <v>5.126253796879339</v>
       </c>
       <c r="E19">
-        <v>10.81909886154553</v>
+        <v>17.51269601828321</v>
       </c>
       <c r="F19">
-        <v>21.00842689891488</v>
+        <v>25.14455700808079</v>
       </c>
       <c r="G19">
-        <v>2.067369112668585</v>
+        <v>3.62905739913809</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.59444558891946</v>
+        <v>10.41614267879441</v>
       </c>
       <c r="L19">
-        <v>7.841001003221989</v>
+        <v>8.599658975628852</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.39884540282446</v>
+        <v>19.72703880107312</v>
       </c>
       <c r="O19">
-        <v>16.07883214468747</v>
+        <v>22.29812771339024</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.95515991756288</v>
+        <v>16.67403514797693</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.98325188465687</v>
+        <v>5.143912771705486</v>
       </c>
       <c r="E20">
-        <v>10.78376111968914</v>
+        <v>17.49281963288289</v>
       </c>
       <c r="F20">
-        <v>21.23880067204923</v>
+        <v>25.16491667501976</v>
       </c>
       <c r="G20">
-        <v>2.065555632126554</v>
+        <v>3.628414639606435</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.84497975553352</v>
+        <v>10.53787788686194</v>
       </c>
       <c r="L20">
-        <v>7.980755583405213</v>
+        <v>8.619721073948927</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.31622667455502</v>
+        <v>19.704379126867</v>
       </c>
       <c r="O20">
-        <v>16.17867170584182</v>
+        <v>22.29222692841238</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.75974141942645</v>
+        <v>16.84485910510873</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.144920551345982</v>
+        <v>5.20227035844109</v>
       </c>
       <c r="E21">
-        <v>10.67272098250721</v>
+        <v>17.42896452415197</v>
       </c>
       <c r="F21">
-        <v>22.0200857768329</v>
+        <v>25.24090692060465</v>
       </c>
       <c r="G21">
-        <v>2.059552570513923</v>
+        <v>3.626325094041522</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.66053041366209</v>
+        <v>10.93493312083173</v>
       </c>
       <c r="L21">
-        <v>8.435391936897672</v>
+        <v>8.688476027084924</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.04111202365865</v>
+        <v>19.63034782883658</v>
       </c>
       <c r="O21">
-        <v>16.52940581309607</v>
+        <v>22.27826248565367</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.27247692484299</v>
+        <v>16.95834811891557</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.247646697603084</v>
+        <v>5.239661255159866</v>
       </c>
       <c r="E22">
-        <v>10.60612008249235</v>
+        <v>17.38941069808666</v>
       </c>
       <c r="F22">
-        <v>22.53556988815717</v>
+        <v>25.29617248802397</v>
       </c>
       <c r="G22">
-        <v>2.055692632962225</v>
+        <v>3.625011432142359</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.17396414363498</v>
+        <v>11.18532053927004</v>
       </c>
       <c r="L22">
-        <v>8.721475856978929</v>
+        <v>8.734362977821648</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.86298622778853</v>
+        <v>19.58352450545446</v>
       </c>
       <c r="O22">
-        <v>16.77011114365627</v>
+        <v>22.27350550190181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.00004387565267</v>
+        <v>16.89761798653194</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.193093172521012</v>
+        <v>5.219775041274268</v>
       </c>
       <c r="E23">
-        <v>10.64110405139469</v>
+        <v>17.41032206486065</v>
       </c>
       <c r="F23">
-        <v>22.26003324702554</v>
+        <v>25.26616718086131</v>
       </c>
       <c r="G23">
-        <v>2.057747194603552</v>
+        <v>3.625707816635494</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.9017271350951</v>
+        <v>11.05252957303963</v>
       </c>
       <c r="L23">
-        <v>8.569793044273947</v>
+        <v>8.709788674290978</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.95791280417306</v>
+        <v>19.60837262065577</v>
       </c>
       <c r="O23">
-        <v>16.64058661712956</v>
+        <v>22.27564458016579</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.94179427381569</v>
+        <v>16.6712764915887</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.980561129121558</v>
+        <v>5.142946630231555</v>
       </c>
       <c r="E24">
-        <v>10.78567335636795</v>
+        <v>17.49390013244492</v>
       </c>
       <c r="F24">
-        <v>21.22612085566707</v>
+        <v>25.16376996407421</v>
       </c>
       <c r="G24">
-        <v>2.065654872270688</v>
+        <v>3.628449672829621</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.8313200450994</v>
+        <v>10.53123721522054</v>
       </c>
       <c r="L24">
-        <v>7.973137219172714</v>
+        <v>8.61861414877138</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.3207539888245</v>
+        <v>19.70561556354499</v>
       </c>
       <c r="O24">
-        <v>16.17313172829818</v>
+        <v>22.29252892597372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.74712571028571</v>
+        <v>16.4360465295375</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.739275238467836</v>
+        <v>5.057009458109247</v>
       </c>
       <c r="E25">
-        <v>10.9657402175779</v>
+        <v>17.59342341278326</v>
       </c>
       <c r="F25">
-        <v>20.13545880385764</v>
+        <v>25.07768243800732</v>
       </c>
       <c r="G25">
-        <v>2.074480021140063</v>
+        <v>3.631631826984241</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.59306754011097</v>
+        <v>9.931181896027484</v>
       </c>
       <c r="L25">
-        <v>7.281693502850839</v>
+        <v>8.524698305738411</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.72038934519105</v>
+        <v>19.81724862009727</v>
       </c>
       <c r="O25">
-        <v>15.71757894243124</v>
+        <v>22.32948953658167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.2715326603696</v>
+        <v>13.82616859780783</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.991257422944105</v>
+        <v>4.551962001167329</v>
       </c>
       <c r="E2">
-        <v>17.67479000615848</v>
+        <v>11.11757450158069</v>
       </c>
       <c r="F2">
-        <v>25.0355028630226</v>
+        <v>19.35794092463764</v>
       </c>
       <c r="G2">
-        <v>3.634170068894004</v>
+        <v>2.08125712087282</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.458621779711443</v>
+        <v>13.61025640546091</v>
       </c>
       <c r="L2">
-        <v>8.4597053410284</v>
+        <v>6.731074613828454</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.90530267709983</v>
+        <v>13.0228739265613</v>
       </c>
       <c r="O2">
-        <v>22.37278902369133</v>
+        <v>15.42299099666485</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16594951984914</v>
+        <v>13.17933249738172</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.945236309674896</v>
+        <v>4.419425015582532</v>
       </c>
       <c r="E3">
-        <v>17.73499294976907</v>
+        <v>11.23180946763588</v>
       </c>
       <c r="F3">
-        <v>25.02023450545102</v>
+        <v>18.84939391143401</v>
       </c>
       <c r="G3">
-        <v>3.636013083655973</v>
+        <v>2.086035804036803</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.120290544060952</v>
+        <v>12.9007197044252</v>
       </c>
       <c r="L3">
-        <v>8.418417321417381</v>
+        <v>6.346487945527614</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.96866362212512</v>
+        <v>13.23353269990502</v>
       </c>
       <c r="O3">
-        <v>22.41213720038299</v>
+        <v>15.24810951071177</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.10419250070908</v>
+        <v>12.77230701839227</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.916288491402191</v>
+        <v>4.335457151114532</v>
       </c>
       <c r="E4">
-        <v>17.77445857534432</v>
+        <v>11.30733794081035</v>
       </c>
       <c r="F4">
-        <v>25.01744736491307</v>
+        <v>18.5470616105497</v>
       </c>
       <c r="G4">
-        <v>3.637205626562548</v>
+        <v>2.089065166823229</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.904087863069487</v>
+        <v>12.44407372165526</v>
       </c>
       <c r="L4">
-        <v>8.394479033361748</v>
+        <v>6.162166786284921</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.00939563577742</v>
+        <v>13.36583259958075</v>
       </c>
       <c r="O4">
-        <v>22.44121863523963</v>
+        <v>15.15264367215707</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.07982128288002</v>
+        <v>12.60419632512703</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.904323032505046</v>
+        <v>4.300616881265275</v>
       </c>
       <c r="E5">
-        <v>17.79117064318778</v>
+        <v>11.33944274089708</v>
       </c>
       <c r="F5">
-        <v>25.01797019802123</v>
+        <v>18.42648034359554</v>
       </c>
       <c r="G5">
-        <v>3.637706965023858</v>
+        <v>2.090324103537617</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.813932072025093</v>
+        <v>12.25280070354518</v>
       </c>
       <c r="L5">
-        <v>8.385086867802446</v>
+        <v>6.086131525036693</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.02645532590021</v>
+        <v>13.420511161804</v>
       </c>
       <c r="O5">
-        <v>22.45430503686284</v>
+        <v>15.1166839998416</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.07582313792962</v>
+        <v>12.57615368517341</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.902326109013296</v>
+        <v>4.294794955933661</v>
       </c>
       <c r="E6">
-        <v>17.79398370962946</v>
+        <v>11.34485302884954</v>
       </c>
       <c r="F6">
-        <v>25.01815722658903</v>
+        <v>18.40661987761164</v>
       </c>
       <c r="G6">
-        <v>3.637791141456275</v>
+        <v>2.090534639790374</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.798840310610085</v>
+        <v>12.22072984768572</v>
       </c>
       <c r="L6">
-        <v>8.383549437016226</v>
+        <v>6.073453580950475</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.02931596170204</v>
+        <v>13.42963735147792</v>
       </c>
       <c r="O6">
-        <v>22.45655257700416</v>
+        <v>15.11088902185408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.10386057258916</v>
+        <v>12.77004856941125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.916127799031995</v>
+        <v>4.334989764733482</v>
       </c>
       <c r="E7">
-        <v>17.77468141039322</v>
+        <v>11.30776558332271</v>
       </c>
       <c r="F7">
-        <v>25.01744769854901</v>
+        <v>18.54542462976493</v>
       </c>
       <c r="G7">
-        <v>3.637212325502556</v>
+        <v>2.089082045652699</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.902880187816907</v>
+        <v>12.44151500813021</v>
       </c>
       <c r="L7">
-        <v>8.3943508882945</v>
+        <v>6.161144933630312</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.00962384008891</v>
+        <v>13.36656688633561</v>
       </c>
       <c r="O7">
-        <v>22.44139012360639</v>
+        <v>15.15214686419095</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.23450424672002</v>
+        <v>13.60531837803672</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.975535476371388</v>
+        <v>4.50681701545441</v>
       </c>
       <c r="E8">
-        <v>17.69502934503031</v>
+        <v>11.15582679895067</v>
       </c>
       <c r="F8">
-        <v>25.0288726819594</v>
+        <v>19.1806134142116</v>
       </c>
       <c r="G8">
-        <v>3.634792924226026</v>
+        <v>2.082885353180919</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.343765914687845</v>
+        <v>13.37001232839904</v>
       </c>
       <c r="L8">
-        <v>8.445180744279556</v>
+        <v>6.596122794723154</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.92677092574272</v>
+        <v>13.09490962366516</v>
       </c>
       <c r="O8">
-        <v>22.38533366836499</v>
+        <v>15.3601907196415</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.51400222008566</v>
+        <v>15.15631577976993</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.086353273881266</v>
+        <v>4.822103986158081</v>
       </c>
       <c r="E9">
-        <v>17.5586443644197</v>
+        <v>10.9019986958029</v>
       </c>
       <c r="F9">
-        <v>25.10340164137347</v>
+        <v>20.49919771950182</v>
       </c>
       <c r="G9">
-        <v>3.630529722358969</v>
+        <v>2.071465499165057</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.13821613752507</v>
+        <v>15.02129933746452</v>
       </c>
       <c r="L9">
-        <v>8.555711034158703</v>
+        <v>7.521040776230563</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.77873879100894</v>
+        <v>12.58456528036208</v>
       </c>
       <c r="O9">
-        <v>22.31453732605181</v>
+        <v>15.86461089092922</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.73205804554463</v>
+        <v>16.23337649909414</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.164048180091245</v>
+        <v>5.039223045687431</v>
       </c>
       <c r="E10">
-        <v>17.47047890639757</v>
+        <v>10.74446001106484</v>
       </c>
       <c r="F10">
-        <v>25.18965972164067</v>
+        <v>21.50500235477016</v>
       </c>
       <c r="G10">
-        <v>3.627687885914234</v>
+        <v>2.063486526329109</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.67576938297402</v>
+        <v>16.12845546351417</v>
       </c>
       <c r="L10">
-        <v>8.643029173088911</v>
+        <v>8.138825759561348</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.67869388366983</v>
+        <v>12.221676910954</v>
       </c>
       <c r="O10">
-        <v>22.28646959243364</v>
+        <v>16.29614077926106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.83367915723084</v>
+        <v>16.70836134914452</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.198532058117169</v>
+        <v>5.134614019794268</v>
       </c>
       <c r="E11">
-        <v>17.43297518811417</v>
+        <v>10.67957335565112</v>
       </c>
       <c r="F11">
-        <v>25.23565525573289</v>
+        <v>21.96916512635489</v>
       </c>
       <c r="G11">
-        <v>3.626457459600263</v>
+        <v>2.059937786915335</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.90973164349496</v>
+        <v>16.60882438342628</v>
       </c>
       <c r="L11">
-        <v>8.68396420935369</v>
+        <v>8.406577677383952</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.63505387526433</v>
+        <v>12.05883777135978</v>
       </c>
       <c r="O11">
-        <v>22.27891268628292</v>
+        <v>16.50601128608077</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.8724799425166</v>
+        <v>16.88598416197483</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.21146217132227</v>
+        <v>5.170234264253662</v>
       </c>
       <c r="E12">
-        <v>17.41914724320026</v>
+        <v>10.65602242548007</v>
       </c>
       <c r="F12">
-        <v>25.25403470515401</v>
+        <v>22.14577581728301</v>
       </c>
       <c r="G12">
-        <v>3.626000444596659</v>
+        <v>2.058604896283017</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.99676747895115</v>
+        <v>16.7873708830946</v>
       </c>
       <c r="L12">
-        <v>8.699629537867057</v>
+        <v>8.50607274933405</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.61879615624292</v>
+        <v>11.99746469641503</v>
       </c>
       <c r="O12">
-        <v>22.27680073460209</v>
+        <v>16.58745321344115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.86410978818048</v>
+        <v>16.84783090988504</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.208683211824793</v>
+        <v>5.162585385717894</v>
       </c>
       <c r="E13">
-        <v>17.42210871607957</v>
+        <v>10.6610484042373</v>
       </c>
       <c r="F13">
-        <v>25.25003374617717</v>
+        <v>22.10770367539338</v>
       </c>
       <c r="G13">
-        <v>3.626098474892662</v>
+        <v>2.058891483162686</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.97809274232361</v>
+        <v>16.74906714957823</v>
       </c>
       <c r="L13">
-        <v>8.696248598088941</v>
+        <v>8.484728817168746</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.62228565570443</v>
+        <v>12.0106700880174</v>
       </c>
       <c r="O13">
-        <v>22.27722223817907</v>
+        <v>16.56982543715365</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.83686509899799</v>
+        <v>16.72301989227944</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.199598420780416</v>
+        <v>5.137554671737824</v>
       </c>
       <c r="E14">
-        <v>17.4318300637129</v>
+        <v>10.67761508688934</v>
       </c>
       <c r="F14">
-        <v>25.23714812506362</v>
+        <v>21.98367868983608</v>
       </c>
       <c r="G14">
-        <v>3.62641968216481</v>
+        <v>2.05982791410466</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.91692362077189</v>
+        <v>16.62358085313798</v>
       </c>
       <c r="L14">
-        <v>8.685249776627092</v>
+        <v>8.414801122835049</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.63371098273621</v>
+        <v>12.05378293632993</v>
       </c>
       <c r="O14">
-        <v>22.27872390962902</v>
+        <v>16.51267201992116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.82021759966294</v>
+        <v>16.64627503710384</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.194016898492948</v>
+        <v>5.122156774576914</v>
       </c>
       <c r="E15">
-        <v>17.43783334985601</v>
+        <v>10.68789693058217</v>
       </c>
       <c r="F15">
-        <v>25.22938027554598</v>
+        <v>21.90781649042495</v>
       </c>
       <c r="G15">
-        <v>3.62661759134886</v>
+        <v>2.060402908329662</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.87925143646912</v>
+        <v>16.54627930929152</v>
       </c>
       <c r="L15">
-        <v>8.678533741085499</v>
+        <v>8.371721827236966</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.64074416521755</v>
+        <v>12.08022766927964</v>
       </c>
       <c r="O15">
-        <v>22.27974136005685</v>
+        <v>16.47792073321551</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.7254631530434</v>
+        <v>16.20202557755013</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.161776883913989</v>
+        <v>5.032919591101115</v>
       </c>
       <c r="E16">
-        <v>17.47298220780561</v>
+        <v>10.74884072141447</v>
       </c>
       <c r="F16">
-        <v>25.18678896773831</v>
+        <v>21.47479174126942</v>
       </c>
       <c r="G16">
-        <v>3.627769547860466</v>
+        <v>2.063720014697506</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.66026307258217</v>
+        <v>16.09659257034868</v>
       </c>
       <c r="L16">
-        <v>8.640377510265361</v>
+        <v>8.121061318353002</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.68158340307117</v>
+        <v>12.23236126024723</v>
       </c>
       <c r="O16">
-        <v>22.28706835389373</v>
+        <v>16.28269982404027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.66793476382221</v>
+        <v>15.92558628577359</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.141775172435191</v>
+        <v>4.977297921090287</v>
       </c>
       <c r="E17">
-        <v>17.49521131815152</v>
+        <v>10.78799523430612</v>
       </c>
       <c r="F17">
-        <v>25.16238460897182</v>
+        <v>21.21075806218076</v>
       </c>
       <c r="G17">
-        <v>3.628492171342324</v>
+        <v>2.065775197994217</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.5231823033656</v>
+        <v>15.81475024029576</v>
       </c>
       <c r="L17">
-        <v>8.617273417851541</v>
+        <v>7.963895619560342</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.70711526101677</v>
+        <v>12.32624228145461</v>
       </c>
       <c r="O17">
-        <v>22.29289830685654</v>
+        <v>16.16642640935083</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.63507616432675</v>
+        <v>15.76518009838672</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.130190040052024</v>
+        <v>4.944988742207461</v>
       </c>
       <c r="E18">
-        <v>17.50824196431438</v>
+        <v>10.81115097787434</v>
       </c>
       <c r="F18">
-        <v>25.14898446096166</v>
+        <v>21.05952149320434</v>
       </c>
       <c r="G18">
-        <v>3.628913675512652</v>
+        <v>2.066964947377569</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.44334386757749</v>
+        <v>15.6504505321143</v>
       </c>
       <c r="L18">
-        <v>8.604099423030576</v>
+        <v>7.872246908042355</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.72197668327725</v>
+        <v>12.38045306515361</v>
       </c>
       <c r="O18">
-        <v>22.29674205597196</v>
+        <v>16.10082507048632</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.62399124670378</v>
+        <v>15.7106310048048</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.126253796879339</v>
+        <v>4.93399549310604</v>
       </c>
       <c r="E19">
-        <v>17.51269601828321</v>
+        <v>10.81909886154554</v>
       </c>
       <c r="F19">
-        <v>25.14455700808079</v>
+        <v>21.00842689891483</v>
       </c>
       <c r="G19">
-        <v>3.62905739913809</v>
+        <v>2.067369112668586</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.41614267879441</v>
+        <v>15.5944455889195</v>
       </c>
       <c r="L19">
-        <v>8.599658975628852</v>
+        <v>7.841001003222024</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.72703880107312</v>
+        <v>12.39884540282436</v>
       </c>
       <c r="O19">
-        <v>22.29812771339024</v>
+        <v>16.07883214468738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.67403514797693</v>
+        <v>15.95515991756293</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.143912771705486</v>
+        <v>4.983251884656811</v>
       </c>
       <c r="E20">
-        <v>17.49281963288289</v>
+        <v>10.78376111968938</v>
       </c>
       <c r="F20">
-        <v>25.16491667501976</v>
+        <v>21.23880067204915</v>
       </c>
       <c r="G20">
-        <v>3.628414639606435</v>
+        <v>2.065555632126554</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.53787788686194</v>
+        <v>15.84497975553359</v>
       </c>
       <c r="L20">
-        <v>8.619721073948927</v>
+        <v>7.980755583405235</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.704379126867</v>
+        <v>12.31622667455495</v>
       </c>
       <c r="O20">
-        <v>22.29222692841238</v>
+        <v>16.17867170584169</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.84485910510873</v>
+        <v>16.75974141942648</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.20227035844109</v>
+        <v>5.144920551345987</v>
       </c>
       <c r="E21">
-        <v>17.42896452415197</v>
+        <v>10.67272098250739</v>
       </c>
       <c r="F21">
-        <v>25.24090692060465</v>
+        <v>22.02008577683285</v>
       </c>
       <c r="G21">
-        <v>3.626325094041522</v>
+        <v>2.059552570513787</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.93493312083173</v>
+        <v>16.66053041366216</v>
       </c>
       <c r="L21">
-        <v>8.688476027084924</v>
+        <v>8.435391936897691</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.63034782883658</v>
+        <v>12.04111202365862</v>
       </c>
       <c r="O21">
-        <v>22.27826248565367</v>
+        <v>16.529405813096</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.95834811891557</v>
+        <v>17.272476924843</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.239661255159866</v>
+        <v>5.247646697602995</v>
       </c>
       <c r="E22">
-        <v>17.38941069808666</v>
+        <v>10.6061200824923</v>
       </c>
       <c r="F22">
-        <v>25.29617248802397</v>
+        <v>22.53556988815719</v>
       </c>
       <c r="G22">
-        <v>3.625011432142359</v>
+        <v>2.055692632962092</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.18532053927004</v>
+        <v>17.17396414363499</v>
       </c>
       <c r="L22">
-        <v>8.734362977821648</v>
+        <v>8.721475856978961</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.58352450545446</v>
+        <v>11.86298622778857</v>
       </c>
       <c r="O22">
-        <v>22.27350550190181</v>
+        <v>16.77011114365629</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.89761798653194</v>
+        <v>17.00004387565269</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.219775041274268</v>
+        <v>5.193093172521012</v>
       </c>
       <c r="E23">
-        <v>17.41032206486065</v>
+        <v>10.64110405139497</v>
       </c>
       <c r="F23">
-        <v>25.26616718086131</v>
+        <v>22.2600332470255</v>
       </c>
       <c r="G23">
-        <v>3.625707816635494</v>
+        <v>2.057747194603553</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.05252957303963</v>
+        <v>16.90172713509513</v>
       </c>
       <c r="L23">
-        <v>8.709788674290978</v>
+        <v>8.569793044273883</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.60837262065577</v>
+        <v>11.95791280417309</v>
       </c>
       <c r="O23">
-        <v>22.27564458016579</v>
+        <v>16.64058661712954</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.6712764915887</v>
+        <v>15.9417942738157</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.142946630231555</v>
+        <v>4.980561129121662</v>
       </c>
       <c r="E24">
-        <v>17.49390013244492</v>
+        <v>10.78567335636784</v>
       </c>
       <c r="F24">
-        <v>25.16376996407421</v>
+        <v>21.22612085566706</v>
       </c>
       <c r="G24">
-        <v>3.628449672829621</v>
+        <v>2.065654872270688</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.53123721522054</v>
+        <v>15.83132004509934</v>
       </c>
       <c r="L24">
-        <v>8.61861414877138</v>
+        <v>7.973137219172727</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.70561556354499</v>
+        <v>12.32075398882446</v>
       </c>
       <c r="O24">
-        <v>22.29252892597372</v>
+        <v>16.17313172829819</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.4360465295375</v>
+        <v>14.74712571028569</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.057009458109247</v>
+        <v>4.739275238467842</v>
       </c>
       <c r="E25">
-        <v>17.59342341278326</v>
+        <v>10.9657402175779</v>
       </c>
       <c r="F25">
-        <v>25.07768243800732</v>
+        <v>20.13545880385763</v>
       </c>
       <c r="G25">
-        <v>3.631631826984241</v>
+        <v>2.074480021140064</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.931181896027484</v>
+        <v>14.59306754011095</v>
       </c>
       <c r="L25">
-        <v>8.524698305738411</v>
+        <v>7.281693502850843</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.81724862009727</v>
+        <v>12.72038934519105</v>
       </c>
       <c r="O25">
-        <v>22.32948953658167</v>
+        <v>15.71757894243123</v>
       </c>
     </row>
   </sheetData>
